--- a/_CSVs/replayTest_Noises1024Hz_01.xlsx
+++ b/_CSVs/replayTest_Noises1024Hz_01.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1340" windowWidth="20300" windowHeight="14380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6040" yWindow="840" windowWidth="20340" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="replayTest_Noises1024Hz_01.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="nbNoise" sheetId="2" r:id="rId2"/>
-    <sheet name="pNoise" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="replayTest_nbNoises1024Hz_01.cs" sheetId="1" r:id="rId1"/>
+    <sheet name="replayTest_Noises512Hz_01.csv" sheetId="6" r:id="rId2"/>
+    <sheet name="nbNoise" sheetId="2" r:id="rId3"/>
+    <sheet name="pNoise" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="198">
   <si>
     <t>Hz_</t>
     <phoneticPr fontId="1"/>
@@ -55,293 +56,581 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1023Hz_1024Hz.wav</t>
+    <t>４８０＋４８０</t>
+  </si>
+  <si>
+    <t>４８０＋４８２</t>
+  </si>
+  <si>
+    <t>４８０＋４８４</t>
+  </si>
+  <si>
+    <t>４８０＋４８６</t>
+  </si>
+  <si>
+    <t>４８０＋４８８</t>
+  </si>
+  <si>
+    <t>４８０＋４９０</t>
+  </si>
+  <si>
+    <t>４８０＋４９５</t>
+  </si>
+  <si>
+    <t>４８０＋５１０</t>
+  </si>
+  <si>
+    <t>４８０＋５２５</t>
+  </si>
+  <si>
+    <t>４８０＋５４０</t>
+  </si>
+  <si>
+    <t>４８０＋５５８</t>
+  </si>
+  <si>
+    <t>４８０＋５７６</t>
+  </si>
+  <si>
+    <t>４８０＋５８８</t>
+  </si>
+  <si>
+    <t>４８０＋６００</t>
+  </si>
+  <si>
+    <t>４８０＋６２０</t>
+  </si>
+  <si>
+    <t>４８０＋６４０</t>
+  </si>
+  <si>
+    <t>４８０＋６６０</t>
+  </si>
+  <si>
+    <t>４８０＋６８０</t>
+  </si>
+  <si>
+    <t>４８０＋７００</t>
+  </si>
+  <si>
+    <t>４８０＋７２０</t>
+  </si>
+  <si>
+    <t>４８０＋７４４</t>
+  </si>
+  <si>
+    <t>４８０＋７６８</t>
+  </si>
+  <si>
+    <t>４８０＋７８４</t>
+  </si>
+  <si>
+    <t>４８０＋８００</t>
+  </si>
+  <si>
+    <t>４８０＋８３２</t>
+  </si>
+  <si>
+    <t>４８０＋８６４</t>
+  </si>
+  <si>
+    <t>４８０＋８８２</t>
+  </si>
+  <si>
+    <t>４８０＋９００</t>
+  </si>
+  <si>
+    <t>４８０＋９３０</t>
+  </si>
+  <si>
+    <t>４８０＋９６０</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_511Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_510Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_509Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_508Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_507Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_506Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_505Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_504Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_503Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_502Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_501Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_500Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_499Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_498Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_497Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_496Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_495Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_494Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_493Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_492Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_491Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_490Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_489Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_488Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_487Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_486Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_485Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_484Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_483Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_482Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_481Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/nbNoise_512Hz.series/nbNoise_480Hz_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_511Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_510Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_509Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_508Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_507Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_506Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_505Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_504Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_503Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_502Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_501Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_500Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_499Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_498Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_497Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_496Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_495Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_494Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_493Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_492Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_491Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_490Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_489Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_488Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_487Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_486Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_485Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_484Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_483Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_482Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_481Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_512Hz.series/pNoise_480Hz_to_512Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 03/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 04/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 05/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 06/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 07/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 08/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 09/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 10/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 11/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 12/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 13/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 14/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 15/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 16/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 17/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 18/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 19/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 20/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 21/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 22/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 23/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 24/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 25/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 26/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 27/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 28/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 29/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 30/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 31/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 32/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 33/nbNoise_</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 34/nbNoise_</t>
   </si>
   <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1023Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1022Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1022Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1021Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1021Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1020Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1020Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1019Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1019Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1018Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1018Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1017Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1017Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1016Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1016Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1015Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1015Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1014Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1014Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1013Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1013Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1012Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1012Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1011Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1011Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1010Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1010Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1009Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1009Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1008Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1008Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1007Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1007Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1006Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1006Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1005Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1005Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1004Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1004Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1003Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1003Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1002Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1002Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1001Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1001Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1000Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1000Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_999Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_999Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_998Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_998Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_997Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_997Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_996Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_996Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_995Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_995Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_994Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_994Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_993Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_993Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_992Hz_1024Hz.wav</t>
-  </si>
-  <si>
     <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_992Hz_to_1024Hz.wav</t>
   </si>
   <si>
-    <t>４８０＋４８０</t>
-  </si>
-  <si>
-    <t>４８０＋４８２</t>
-  </si>
-  <si>
-    <t>４８０＋４８４</t>
-  </si>
-  <si>
-    <t>４８０＋４８６</t>
-  </si>
-  <si>
-    <t>４８０＋４８８</t>
-  </si>
-  <si>
-    <t>４８０＋４９０</t>
-  </si>
-  <si>
-    <t>４８０＋４９５</t>
-  </si>
-  <si>
-    <t>４８０＋５１０</t>
-  </si>
-  <si>
-    <t>４８０＋５２５</t>
-  </si>
-  <si>
-    <t>４８０＋５４０</t>
-  </si>
-  <si>
-    <t>４８０＋５５８</t>
-  </si>
-  <si>
-    <t>４８０＋５７６</t>
-  </si>
-  <si>
-    <t>４８０＋５８８</t>
-  </si>
-  <si>
-    <t>４８０＋６００</t>
-  </si>
-  <si>
-    <t>４８０＋６２０</t>
-  </si>
-  <si>
-    <t>４８０＋６４０</t>
-  </si>
-  <si>
-    <t>４８０＋６６０</t>
-  </si>
-  <si>
-    <t>４８０＋６８０</t>
-  </si>
-  <si>
-    <t>４８０＋７００</t>
-  </si>
-  <si>
-    <t>４８０＋７２０</t>
-  </si>
-  <si>
-    <t>４８０＋７４４</t>
-  </si>
-  <si>
-    <t>４８０＋７６８</t>
-  </si>
-  <si>
-    <t>４８０＋７８４</t>
-  </si>
-  <si>
-    <t>４８０＋８００</t>
-  </si>
-  <si>
-    <t>４８０＋８３２</t>
-  </si>
-  <si>
-    <t>４８０＋８６４</t>
-  </si>
-  <si>
-    <t>４８０＋８８２</t>
-  </si>
-  <si>
-    <t>４８０＋９００</t>
-  </si>
-  <si>
-    <t>４８０＋９３０</t>
-  </si>
-  <si>
-    <t>４８０＋９６０</t>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_991Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_990Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_989Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_988Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_987Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_986Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_985Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_984Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_983Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_982Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_981Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_980Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_979Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_978Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_977Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_976Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_975Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_974Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_973Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_972Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_971Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_970Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_969Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_968Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_967Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_966Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_965Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_964Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_963Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_962Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_961Hz_to_1024Hz.wav</t>
+  </si>
+  <si>
+    <t>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_960Hz_to_1024Hz.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,6 +664,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +690,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,11 +758,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="87">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -499,6 +817,16 @@
     <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -533,6 +861,16 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -863,330 +1201,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1203,10 +1541,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L32"/>
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1225,6 +1905,7 @@
         <v>6</v>
       </c>
       <c r="B1">
+        <f>$G$1</f>
         <v>1024</v>
       </c>
       <c r="C1" t="s">
@@ -1262,6 +1943,7 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <f t="shared" ref="B2:B31" si="0">$G$1</f>
         <v>1024</v>
       </c>
       <c r="C2" t="s">
@@ -1291,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L32" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2)</f>
+        <f t="shared" ref="L2:L32" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2)</f>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1022Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1300,6 +1982,7 @@
         <v>6</v>
       </c>
       <c r="B3">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C3" t="s">
@@ -1309,14 +1992,14 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E32" si="1">E2-1</f>
+        <f t="shared" ref="E3:E64" si="2">E2-1</f>
         <v>1021</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G32" si="2">$G$1</f>
+        <f t="shared" ref="G3:G64" si="3">$G$1</f>
         <v>1024</v>
       </c>
       <c r="H3" t="s">
@@ -1329,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1021Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1338,6 +2021,7 @@
         <v>6</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C4" t="s">
@@ -1347,14 +2031,14 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1020</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H4" t="s">
@@ -1367,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1020Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1376,6 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C5" t="s">
@@ -1385,14 +2070,14 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1019</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H5" t="s">
@@ -1405,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1019Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1414,6 +2099,7 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C6" t="s">
@@ -1423,14 +2109,14 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1018</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H6" t="s">
@@ -1443,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1018Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1452,6 +2138,7 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C7" t="s">
@@ -1461,14 +2148,14 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1017</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H7" t="s">
@@ -1481,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1017Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1490,6 +2177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C8" t="s">
@@ -1499,14 +2187,14 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1016</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H8" t="s">
@@ -1519,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1016Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1528,6 +2216,7 @@
         <v>6</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C9" t="s">
@@ -1537,14 +2226,14 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1015</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H9" t="s">
@@ -1557,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1015Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1566,6 +2255,7 @@
         <v>6</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C10" t="s">
@@ -1575,14 +2265,14 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1014</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H10" t="s">
@@ -1595,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1014Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1604,6 +2294,7 @@
         <v>6</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C11" t="s">
@@ -1613,14 +2304,14 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1013</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H11" t="s">
@@ -1633,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1013Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1642,6 +2333,7 @@
         <v>6</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C12" t="s">
@@ -1651,14 +2343,14 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1012</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H12" t="s">
@@ -1671,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1012Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1680,6 +2372,7 @@
         <v>6</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C13" t="s">
@@ -1689,14 +2382,14 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1011</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H13" t="s">
@@ -1709,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1011Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1718,6 +2411,7 @@
         <v>6</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C14" t="s">
@@ -1727,14 +2421,14 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1010</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H14" t="s">
@@ -1747,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1010Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1756,6 +2450,7 @@
         <v>6</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C15" t="s">
@@ -1765,14 +2460,14 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1009</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H15" t="s">
@@ -1785,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1009Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1794,6 +2489,7 @@
         <v>6</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C16" t="s">
@@ -1803,14 +2499,14 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1008</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H16" t="s">
@@ -1823,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1008Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1832,6 +2528,7 @@
         <v>6</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C17" t="s">
@@ -1841,14 +2538,14 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1007</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H17" t="s">
@@ -1861,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1007Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1870,6 +2567,7 @@
         <v>6</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C18" t="s">
@@ -1879,14 +2577,14 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1006</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H18" t="s">
@@ -1899,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1006Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1908,6 +2606,7 @@
         <v>6</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C19" t="s">
@@ -1917,14 +2616,14 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1005</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H19" t="s">
@@ -1937,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1005Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1946,6 +2645,7 @@
         <v>6</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C20" t="s">
@@ -1955,14 +2655,14 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1004</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H20" t="s">
@@ -1975,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1004Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -1984,6 +2684,7 @@
         <v>6</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C21" t="s">
@@ -1993,14 +2694,14 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1003</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H21" t="s">
@@ -2013,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1003Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2022,6 +2723,7 @@
         <v>6</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C22" t="s">
@@ -2031,14 +2733,14 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1002</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H22" t="s">
@@ -2051,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1002Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2060,6 +2762,7 @@
         <v>6</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C23" t="s">
@@ -2069,14 +2772,14 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1001</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H23" t="s">
@@ -2089,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1001Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2098,6 +2801,7 @@
         <v>6</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C24" t="s">
@@ -2107,14 +2811,14 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H24" t="s">
@@ -2127,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_1000Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2136,6 +2840,7 @@
         <v>6</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C25" t="s">
@@ -2145,14 +2850,14 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>999</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H25" t="s">
@@ -2165,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_999Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2174,6 +2879,7 @@
         <v>6</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C26" t="s">
@@ -2183,14 +2889,14 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>998</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H26" t="s">
@@ -2203,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_998Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2212,6 +2918,7 @@
         <v>6</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C27" t="s">
@@ -2221,14 +2928,14 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>997</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H27" t="s">
@@ -2241,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_997Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2250,6 +2957,7 @@
         <v>6</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C28" t="s">
@@ -2259,14 +2967,14 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>996</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H28" t="s">
@@ -2279,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_996Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2288,6 +2996,7 @@
         <v>6</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C29" t="s">
@@ -2297,14 +3006,14 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>995</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H29" t="s">
@@ -2317,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_995Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2326,6 +3035,7 @@
         <v>6</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C30" t="s">
@@ -2335,14 +3045,14 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>994</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H30" t="s">
@@ -2355,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_994Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2364,6 +3074,7 @@
         <v>6</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C31" t="s">
@@ -2373,14 +3084,14 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>993</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H31" t="s">
@@ -2393,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_993Hz_1024Hz.wav</v>
       </c>
     </row>
@@ -2402,6 +3113,7 @@
         <v>6</v>
       </c>
       <c r="B32">
+        <f t="shared" ref="B32:B64" si="4">$G$1</f>
         <v>1024</v>
       </c>
       <c r="C32" t="s">
@@ -2411,14 +3123,14 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>992</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H32" t="s">
@@ -2431,8 +3143,1256 @@
         <v>1</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/nbNoise_1024Hz.series/nbNoise_992Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>991</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" ref="L33:L64" si="5">CONCATENATE(A33,B33,C33,D33,E33,F33,G33,H33)</f>
+        <v>_Sounds/SNSD Noise 03/nbNoise_1024Hz.series/nbNoise_991Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>34</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 04/nbNoise_1024Hz.series/nbNoise_990Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>989</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 05/nbNoise_1024Hz.series/nbNoise_989Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>988</v>
+      </c>
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 06/nbNoise_1024Hz.series/nbNoise_988Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>987</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>37</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 07/nbNoise_1024Hz.series/nbNoise_987Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>986</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>38</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 08/nbNoise_1024Hz.series/nbNoise_986Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>985</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>39</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 09/nbNoise_1024Hz.series/nbNoise_985Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>984</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>40</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 10/nbNoise_1024Hz.series/nbNoise_984Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>983</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>41</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 11/nbNoise_1024Hz.series/nbNoise_983Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>982</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 12/nbNoise_1024Hz.series/nbNoise_982Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>981</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 13/nbNoise_1024Hz.series/nbNoise_981Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 14/nbNoise_1024Hz.series/nbNoise_980Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>979</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 15/nbNoise_1024Hz.series/nbNoise_979Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>978</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>46</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 16/nbNoise_1024Hz.series/nbNoise_978Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>977</v>
+      </c>
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>47</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 17/nbNoise_1024Hz.series/nbNoise_977Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>976</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>48</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 18/nbNoise_1024Hz.series/nbNoise_976Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>975</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>49</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 19/nbNoise_1024Hz.series/nbNoise_975Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>974</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 20/nbNoise_1024Hz.series/nbNoise_974Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>973</v>
+      </c>
+      <c r="F51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>51</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 21/nbNoise_1024Hz.series/nbNoise_973Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="F52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>52</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 22/nbNoise_1024Hz.series/nbNoise_972Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>971</v>
+      </c>
+      <c r="F53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>53</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 23/nbNoise_1024Hz.series/nbNoise_971Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+      <c r="F54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>54</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 24/nbNoise_1024Hz.series/nbNoise_970Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>969</v>
+      </c>
+      <c r="F55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>55</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 25/nbNoise_1024Hz.series/nbNoise_969Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>968</v>
+      </c>
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>56</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 26/nbNoise_1024Hz.series/nbNoise_968Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>967</v>
+      </c>
+      <c r="F57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>57</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 27/nbNoise_1024Hz.series/nbNoise_967Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>966</v>
+      </c>
+      <c r="F58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>58</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 28/nbNoise_1024Hz.series/nbNoise_966Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>965</v>
+      </c>
+      <c r="F59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>59</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 29/nbNoise_1024Hz.series/nbNoise_965Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>964</v>
+      </c>
+      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>60</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 30/nbNoise_1024Hz.series/nbNoise_964Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>963</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>61</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 31/nbNoise_1024Hz.series/nbNoise_963Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>962</v>
+      </c>
+      <c r="F62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>62</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 32/nbNoise_1024Hz.series/nbNoise_962Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>961</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>63</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 33/nbNoise_1024Hz.series/nbNoise_961Hz_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>64</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="5"/>
+        <v>_Sounds/SNSD Noise 34/nbNoise_1024Hz.series/nbNoise_960Hz_1024Hz.wav</v>
       </c>
     </row>
   </sheetData>
@@ -2450,12 +4410,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L32"/>
+      <selection activeCell="L1" sqref="L1:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2474,6 +4434,7 @@
         <v>7</v>
       </c>
       <c r="B1">
+        <f t="shared" ref="B1:B64" si="0">$G$1</f>
         <v>1024</v>
       </c>
       <c r="C1" t="s">
@@ -2511,6 +4472,7 @@
         <v>7</v>
       </c>
       <c r="B2">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C2" t="s">
@@ -2540,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L32" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2)</f>
+        <f t="shared" ref="L2:L64" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2)</f>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1022Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2549,6 +4511,7 @@
         <v>7</v>
       </c>
       <c r="B3">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C3" t="s">
@@ -2558,14 +4521,14 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E32" si="1">E2-1</f>
+        <f t="shared" ref="E3:E64" si="2">E2-1</f>
         <v>1021</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G32" si="2">$G$1</f>
+        <f t="shared" ref="G3:G64" si="3">$G$1</f>
         <v>1024</v>
       </c>
       <c r="H3" t="s">
@@ -2578,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1021Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2587,6 +4550,7 @@
         <v>7</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C4" t="s">
@@ -2596,14 +4560,14 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1020</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H4" t="s">
@@ -2616,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1020Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2625,6 +4589,7 @@
         <v>7</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C5" t="s">
@@ -2634,14 +4599,14 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1019</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H5" t="s">
@@ -2654,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1019Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2663,6 +4628,7 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C6" t="s">
@@ -2672,14 +4638,14 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1018</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H6" t="s">
@@ -2692,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1018Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2701,6 +4667,7 @@
         <v>7</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C7" t="s">
@@ -2710,14 +4677,14 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1017</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H7" t="s">
@@ -2730,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1017Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2739,6 +4706,7 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C8" t="s">
@@ -2748,14 +4716,14 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1016</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H8" t="s">
@@ -2768,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1016Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2777,6 +4745,7 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C9" t="s">
@@ -2786,14 +4755,14 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1015</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H9" t="s">
@@ -2806,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1015Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2815,6 +4784,7 @@
         <v>7</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C10" t="s">
@@ -2824,14 +4794,14 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1014</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H10" t="s">
@@ -2844,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1014Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2853,6 +4823,7 @@
         <v>7</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C11" t="s">
@@ -2862,14 +4833,14 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1013</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H11" t="s">
@@ -2882,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1013Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2891,6 +4862,7 @@
         <v>7</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C12" t="s">
@@ -2900,14 +4872,14 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1012</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H12" t="s">
@@ -2920,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1012Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2929,6 +4901,7 @@
         <v>7</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C13" t="s">
@@ -2938,14 +4911,14 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1011</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H13" t="s">
@@ -2958,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1011Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -2967,6 +4940,7 @@
         <v>7</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C14" t="s">
@@ -2976,14 +4950,14 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1010</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H14" t="s">
@@ -2996,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1010Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3005,6 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C15" t="s">
@@ -3014,14 +4989,14 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1009</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H15" t="s">
@@ -3034,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1009Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3043,6 +5018,7 @@
         <v>7</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C16" t="s">
@@ -3052,14 +5028,14 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1008</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H16" t="s">
@@ -3072,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1008Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3081,6 +5057,7 @@
         <v>7</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C17" t="s">
@@ -3090,14 +5067,14 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1007</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H17" t="s">
@@ -3110,7 +5087,7 @@
         <v>2</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1007Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3119,6 +5096,7 @@
         <v>7</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C18" t="s">
@@ -3128,14 +5106,14 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1006</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H18" t="s">
@@ -3148,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1006Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3157,6 +5135,7 @@
         <v>7</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C19" t="s">
@@ -3166,14 +5145,14 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1005</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H19" t="s">
@@ -3186,7 +5165,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1005Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3195,6 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C20" t="s">
@@ -3204,14 +5184,14 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1004</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H20" t="s">
@@ -3224,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1004Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3233,6 +5213,7 @@
         <v>7</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C21" t="s">
@@ -3242,14 +5223,14 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1003</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H21" t="s">
@@ -3262,7 +5243,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1003Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3271,6 +5252,7 @@
         <v>7</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C22" t="s">
@@ -3280,14 +5262,14 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1002</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H22" t="s">
@@ -3300,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1002Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3309,6 +5291,7 @@
         <v>7</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C23" t="s">
@@ -3318,14 +5301,14 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1001</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H23" t="s">
@@ -3338,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1001Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3347,6 +5330,7 @@
         <v>7</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C24" t="s">
@@ -3356,14 +5340,14 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H24" t="s">
@@ -3376,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_1000Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3385,6 +5369,7 @@
         <v>7</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C25" t="s">
@@ -3394,14 +5379,14 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>999</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H25" t="s">
@@ -3414,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_999Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3423,6 +5408,7 @@
         <v>7</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C26" t="s">
@@ -3432,14 +5418,14 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>998</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H26" t="s">
@@ -3452,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_998Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3461,6 +5447,7 @@
         <v>7</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C27" t="s">
@@ -3470,14 +5457,14 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>997</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H27" t="s">
@@ -3490,7 +5477,7 @@
         <v>2</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_997Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3499,6 +5486,7 @@
         <v>7</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C28" t="s">
@@ -3508,14 +5496,14 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>996</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H28" t="s">
@@ -3528,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_996Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3537,6 +5525,7 @@
         <v>7</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C29" t="s">
@@ -3546,14 +5535,14 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>995</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H29" t="s">
@@ -3566,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_995Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3575,6 +5564,7 @@
         <v>7</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C30" t="s">
@@ -3584,14 +5574,14 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>994</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H30" t="s">
@@ -3604,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_994Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3613,6 +5603,7 @@
         <v>7</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C31" t="s">
@@ -3622,14 +5613,14 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>993</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H31" t="s">
@@ -3642,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_993Hz_to_1024Hz.wav</v>
       </c>
     </row>
@@ -3651,6 +5642,7 @@
         <v>7</v>
       </c>
       <c r="B32">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C32" t="s">
@@ -3660,14 +5652,14 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>992</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H32" t="s">
@@ -3680,741 +5672,1259 @@
         <v>2</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_992Hz_to_1024Hz.wav</v>
       </c>
     </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>991</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_991Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>34</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_990Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>989</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_989Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>988</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_988Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>987</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>37</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_987Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>986</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>38</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_986Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>985</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>39</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_985Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>984</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>40</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_984Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>983</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>41</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_983Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>982</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_982Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>981</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_981Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_980Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>979</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_979Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>978</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>46</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_978Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>977</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>47</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_977Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>976</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>48</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_976Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>975</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>49</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_975Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>974</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_974Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>973</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>51</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_973Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>52</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_972Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>971</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>53</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_971Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>54</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_970Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>969</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>55</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_969Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>968</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>56</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_968Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>967</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>57</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_967Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>966</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>58</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_966Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>965</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>59</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_965Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>964</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>60</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_964Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>963</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>61</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_963Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>962</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>62</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_962Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>961</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>63</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_961Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>64</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v>_Sounds/SNSD Noise 02/pNoise_1024Hz.series/pNoise_960Hz_to_1024Hz.wav</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>14</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>19</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>20</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>21</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>21</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>24</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>25</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>25</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>26</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>26</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>27</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>27</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>28</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>28</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
-        <v>29</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
-        <v>29</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
-        <v>30</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>30</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>31</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>31</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>32</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>32</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:C64">
-    <sortCondition ref="A1:A64"/>
-    <sortCondition ref="B1:B64"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4428,6 +6938,735 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C64">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -4438,7 +7677,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>480</v>
@@ -4446,7 +7685,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>482</v>
@@ -4454,7 +7693,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>484</v>
@@ -4462,7 +7701,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>486</v>
@@ -4470,7 +7709,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>488</v>
@@ -4478,7 +7717,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>490</v>
@@ -4486,7 +7725,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>495</v>
@@ -4494,7 +7733,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>510</v>
@@ -4502,7 +7741,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>525</v>
@@ -4510,7 +7749,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>540</v>
@@ -4518,7 +7757,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>558</v>
@@ -4526,7 +7765,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>576</v>
@@ -4534,7 +7773,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>588</v>
@@ -4542,7 +7781,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>600</v>
@@ -4550,7 +7789,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>620</v>
@@ -4558,7 +7797,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>640</v>
@@ -4566,7 +7805,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>660</v>
@@ -4574,7 +7813,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>680</v>
@@ -4582,7 +7821,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>700</v>
@@ -4590,7 +7829,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>720</v>
@@ -4598,7 +7837,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>744</v>
@@ -4606,7 +7845,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>768</v>
@@ -4614,7 +7853,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>784</v>
@@ -4622,7 +7861,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>800</v>
@@ -4630,7 +7869,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>832</v>
@@ -4638,7 +7877,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>864</v>
@@ -4646,7 +7885,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>882</v>
@@ -4654,7 +7893,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>900</v>
@@ -4662,7 +7901,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>930</v>
@@ -4670,7 +7909,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>960</v>
